--- a/test/input/EmptyFiscalYear.xlsx
+++ b/test/input/EmptyFiscalYear.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="206" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="2" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="206" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="DOC_SRC" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="78">
   <si>
     <t>Input Value</t>
   </si>
@@ -130,18 +130,27 @@
     <t>Short Title</t>
   </si>
   <si>
-    <t>Functional Match</t>
-  </si>
-  <si>
-    <t>Functional Match 1</t>
-  </si>
-  <si>
-    <t>Functional Match 2</t>
+    <t>primary</t>
+  </si>
+  <si>
+    <t>secondary</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>scope</t>
+  </si>
+  <si>
+    <t>bod</t>
   </si>
   <si>
     <t>Founder</t>
   </si>
   <si>
+    <t>Transition Period</t>
+  </si>
+  <si>
     <t>Base Salary</t>
   </si>
   <si>
@@ -209,6 +218,9 @@
   </si>
   <si>
     <t>asd</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
   <si>
     <t>lala</t>
@@ -539,9 +551,9 @@
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="12" fillId="2" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="167" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="12" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="12" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="12" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="12" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
@@ -622,17 +634,17 @@
   </sheetPr>
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A34" view="normal" windowProtection="false" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A34" view="normal" windowProtection="false" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100">
       <selection activeCell="C41" activeCellId="0" pane="topLeft" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5372549019608"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.721568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.8078431372549"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.9882352941176"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.356862745098"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.6823529411765"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.556862745098"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.7529411764706"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.8470588235294"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.0274509803922"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.3882352941176"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.6941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -1289,7 +1301,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.43921568627451"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.44313725490196"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="2">
@@ -1318,23 +1330,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE20"/>
+  <dimension ref="A1:AH20"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100">
-      <selection activeCell="I10" activeCellId="0" pane="topLeft" sqref="I10"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100">
+      <selection activeCell="K16" activeCellId="0" pane="topLeft" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.3843137254902"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.60392156862745"/>
-    <col collapsed="false" hidden="false" max="8" min="4" style="0" width="8.3843137254902"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.4980392156863"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="11.0156862745098"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.5372549019608"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.3843137254902"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.0156862745098"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.3843137254902"/>
+    <col collapsed="false" hidden="false" max="11" min="4" style="0" width="8.3843137254902"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.5098039215686"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="11.0313725490196"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.556862745098"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.3843137254902"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.0117647058824"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="8.3843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -1347,21 +1359,21 @@
       <c r="F1" s="33"/>
       <c r="G1" s="33"/>
       <c r="H1" s="33"/>
-      <c r="I1" s="33" t="s">
-        <v>29</v>
-      </c>
+      <c r="I1" s="33"/>
       <c r="J1" s="33"/>
       <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
+      <c r="L1" s="33" t="s">
+        <v>29</v>
+      </c>
       <c r="M1" s="33"/>
       <c r="N1" s="33"/>
       <c r="O1" s="33"/>
-      <c r="P1" s="33" t="s">
-        <v>30</v>
-      </c>
+      <c r="P1" s="33"/>
       <c r="Q1" s="33"/>
       <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
+      <c r="S1" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="T1" s="33"/>
       <c r="U1" s="33"/>
       <c r="V1" s="33"/>
@@ -1369,13 +1381,16 @@
       <c r="X1" s="33"/>
       <c r="Y1" s="33"/>
       <c r="Z1" s="33"/>
-      <c r="AA1" s="33" t="s">
-        <v>31</v>
-      </c>
+      <c r="AA1" s="33"/>
       <c r="AB1" s="33"/>
       <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
+      <c r="AD1" s="33" t="s">
+        <v>31</v>
+      </c>
       <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="B2" s="33"/>
@@ -1385,23 +1400,23 @@
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
       <c r="H2" s="33"/>
-      <c r="I2" s="33" t="s">
-        <v>32</v>
-      </c>
+      <c r="I2" s="33"/>
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
+      <c r="L2" s="33" t="s">
+        <v>32</v>
+      </c>
       <c r="M2" s="33"/>
-      <c r="N2" s="33" t="s">
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33" t="s">
+      <c r="R2" s="33"/>
+      <c r="S2" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
       <c r="T2" s="33"/>
       <c r="U2" s="33"/>
       <c r="V2" s="33"/>
@@ -1414,6 +1429,9 @@
       <c r="AC2" s="33"/>
       <c r="AD2" s="33"/>
       <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
       <c r="B3" s="34" t="s">
@@ -1453,19 +1471,19 @@
         <v>45</v>
       </c>
       <c r="N3" s="34" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="O3" s="34" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P3" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="34" t="s">
         <v>46</v>
-      </c>
-      <c r="Q3" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="R3" s="34" t="s">
-        <v>48</v>
       </c>
       <c r="S3" s="34" t="s">
         <v>49</v>
@@ -1483,19 +1501,19 @@
         <v>53</v>
       </c>
       <c r="X3" s="34" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Y3" s="34" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Z3" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA3" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="AA3" s="34" t="s">
+      <c r="AB3" s="34" t="s">
         <v>55</v>
-      </c>
-      <c r="AB3" s="34" t="s">
-        <v>56</v>
       </c>
       <c r="AC3" s="34" t="s">
         <v>57</v>
@@ -1506,36 +1524,46 @@
       <c r="AE3" s="34" t="s">
         <v>59</v>
       </c>
+      <c r="AF3" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG3" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH3" s="34" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.5" outlineLevel="0" r="4">
       <c r="A4" s="34" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="I4" s="36" t="n">
+        <v>66</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="37"/>
+      <c r="L4" s="36" t="n">
         <v>1000</v>
       </c>
-      <c r="J4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="36" t="n">
+      <c r="M4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N4" s="36" t="n">
@@ -1578,221 +1606,246 @@
         <v>1</v>
       </c>
       <c r="AA4" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="36" t="n">
         <v>100</v>
       </c>
-      <c r="AB4" s="36" t="n">
+      <c r="AE4" s="36" t="n">
         <v>200</v>
       </c>
-      <c r="AC4" s="36" t="n">
+      <c r="AF4" s="36" t="n">
         <v>300</v>
       </c>
-      <c r="AD4" s="36" t="n">
+      <c r="AG4" s="36" t="n">
         <v>400</v>
       </c>
-      <c r="AE4" s="0" t="n">
+      <c r="AH4" s="0" t="n">
         <v>500</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="1" r="5">
       <c r="A5" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="37"/>
-      <c r="X5" s="37"/>
-      <c r="Y5" s="37"/>
-      <c r="Z5" s="37"/>
-      <c r="AA5" s="37"/>
-      <c r="AB5" s="37"/>
-      <c r="AC5" s="36"/>
-      <c r="AD5" s="37"/>
-      <c r="AE5" s="37"/>
+        <v>69</v>
+      </c>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="38"/>
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="38"/>
+      <c r="AH5" s="38"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="1" r="6">
       <c r="A6" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="37"/>
-      <c r="AA6" s="37"/>
-      <c r="AB6" s="37"/>
-      <c r="AC6" s="36"/>
-      <c r="AD6" s="37"/>
-      <c r="AE6" s="37"/>
+        <v>70</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="36"/>
+      <c r="AG6" s="38"/>
+      <c r="AH6" s="38"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="1" r="7">
       <c r="A7" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="37"/>
-      <c r="AB7" s="37"/>
-      <c r="AC7" s="36"/>
-      <c r="AD7" s="37"/>
-      <c r="AE7" s="37"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="38"/>
+      <c r="AF7" s="36"/>
+      <c r="AG7" s="38"/>
+      <c r="AH7" s="38"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="1" r="8">
       <c r="A8" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="36"/>
-      <c r="AD8" s="37"/>
-      <c r="AE8" s="37"/>
+        <v>71</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="38"/>
+      <c r="AE8" s="38"/>
+      <c r="AF8" s="36"/>
+      <c r="AG8" s="38"/>
+      <c r="AH8" s="38"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="1" r="9">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="36"/>
-      <c r="AD9" s="37"/>
-      <c r="AE9" s="37"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="38"/>
+      <c r="AC9" s="38"/>
+      <c r="AD9" s="38"/>
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="36"/>
+      <c r="AG9" s="38"/>
+      <c r="AH9" s="38"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.5" outlineLevel="0" r="10">
       <c r="A10" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="J10" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="36" t="n">
-        <v>1</v>
+      <c r="K10" s="37"/>
+      <c r="L10" s="36" t="s">
+        <v>66</v>
       </c>
       <c r="M10" s="36" t="n">
         <v>1</v>
@@ -1837,192 +1890,214 @@
         <v>1</v>
       </c>
       <c r="AA10" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="36" t="n">
         <v>100</v>
       </c>
-      <c r="AB10" s="36" t="n">
+      <c r="AE10" s="36" t="n">
         <v>200</v>
       </c>
-      <c r="AC10" s="36" t="n">
+      <c r="AF10" s="36" t="n">
         <v>300</v>
       </c>
-      <c r="AD10" s="36" t="n">
+      <c r="AG10" s="36" t="n">
         <v>400</v>
       </c>
-      <c r="AE10" s="0" t="n">
+      <c r="AH10" s="0" t="n">
         <v>500</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="11">
       <c r="A11" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="37"/>
-      <c r="AA11" s="37"/>
-      <c r="AB11" s="37"/>
-      <c r="AC11" s="36"/>
-      <c r="AD11" s="37"/>
-      <c r="AE11" s="37"/>
+        <v>69</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="38"/>
+      <c r="AC11" s="38"/>
+      <c r="AD11" s="38"/>
+      <c r="AE11" s="38"/>
+      <c r="AF11" s="36"/>
+      <c r="AG11" s="38"/>
+      <c r="AH11" s="38"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="12">
       <c r="A12" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="37"/>
-      <c r="AC12" s="36"/>
-      <c r="AD12" s="37"/>
-      <c r="AE12" s="37"/>
+        <v>70</v>
+      </c>
+      <c r="B12" s="39"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="38"/>
+      <c r="AE12" s="38"/>
+      <c r="AF12" s="36"/>
+      <c r="AG12" s="38"/>
+      <c r="AH12" s="38"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="13">
       <c r="A13" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37"/>
-      <c r="AA13" s="37"/>
-      <c r="AB13" s="37"/>
-      <c r="AC13" s="36"/>
-      <c r="AD13" s="37"/>
-      <c r="AE13" s="37"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="38"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="38"/>
+      <c r="AB13" s="38"/>
+      <c r="AC13" s="38"/>
+      <c r="AD13" s="38"/>
+      <c r="AE13" s="38"/>
+      <c r="AF13" s="36"/>
+      <c r="AG13" s="38"/>
+      <c r="AH13" s="38"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="14">
       <c r="A14" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="37"/>
-      <c r="AA14" s="37"/>
-      <c r="AB14" s="37"/>
-      <c r="AC14" s="36"/>
-      <c r="AD14" s="37"/>
-      <c r="AE14" s="37"/>
+        <v>71</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="38"/>
+      <c r="AC14" s="38"/>
+      <c r="AD14" s="38"/>
+      <c r="AE14" s="38"/>
+      <c r="AF14" s="36"/>
+      <c r="AG14" s="38"/>
+      <c r="AH14" s="38"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="15">
-      <c r="AC15" s="39"/>
+      <c r="AF15" s="37"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.5" outlineLevel="0" r="16">
       <c r="A16" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>71</v>
+        <v>63</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>75</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="I16" s="36" t="n">
+        <v>77</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" s="37"/>
+      <c r="L16" s="36" t="n">
         <v>1000</v>
       </c>
-      <c r="J16" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" s="36" t="n">
-        <v>1</v>
-      </c>
       <c r="M16" s="36" t="n">
         <v>1</v>
       </c>
@@ -2066,170 +2141,191 @@
         <v>1</v>
       </c>
       <c r="AA16" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="36" t="n">
         <v>100</v>
       </c>
-      <c r="AB16" s="36" t="n">
+      <c r="AE16" s="36" t="n">
         <v>200</v>
       </c>
-      <c r="AC16" s="36" t="n">
+      <c r="AF16" s="36" t="n">
         <v>300</v>
       </c>
-      <c r="AD16" s="36" t="n">
+      <c r="AG16" s="36" t="n">
         <v>400</v>
       </c>
-      <c r="AE16" s="0" t="n">
+      <c r="AH16" s="0" t="n">
         <v>500</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="17">
       <c r="A17" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="37"/>
-      <c r="AA17" s="37"/>
-      <c r="AB17" s="37"/>
-      <c r="AC17" s="40"/>
-      <c r="AD17" s="37"/>
-      <c r="AE17" s="37"/>
+        <v>69</v>
+      </c>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="38"/>
+      <c r="AB17" s="38"/>
+      <c r="AC17" s="38"/>
+      <c r="AD17" s="38"/>
+      <c r="AE17" s="38"/>
+      <c r="AF17" s="40"/>
+      <c r="AG17" s="38"/>
+      <c r="AH17" s="38"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="18">
       <c r="A18" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="37"/>
-      <c r="AA18" s="37"/>
-      <c r="AB18" s="37"/>
-      <c r="AC18" s="40"/>
-      <c r="AD18" s="37"/>
-      <c r="AE18" s="37"/>
+        <v>70</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="38"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="38"/>
+      <c r="AE18" s="38"/>
+      <c r="AF18" s="40"/>
+      <c r="AG18" s="38"/>
+      <c r="AH18" s="38"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="19">
       <c r="A19" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="37"/>
-      <c r="AA19" s="37"/>
-      <c r="AB19" s="37"/>
-      <c r="AC19" s="37"/>
-      <c r="AD19" s="37"/>
-      <c r="AE19" s="37"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="38"/>
+      <c r="AC19" s="38"/>
+      <c r="AD19" s="38"/>
+      <c r="AE19" s="38"/>
+      <c r="AF19" s="38"/>
+      <c r="AG19" s="38"/>
+      <c r="AH19" s="38"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="20">
       <c r="A20" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="37"/>
-      <c r="AA20" s="37"/>
-      <c r="AB20" s="37"/>
-      <c r="AC20" s="37"/>
-      <c r="AD20" s="37"/>
-      <c r="AE20" s="37"/>
+        <v>71</v>
+      </c>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="38"/>
+      <c r="AB20" s="38"/>
+      <c r="AC20" s="38"/>
+      <c r="AD20" s="38"/>
+      <c r="AE20" s="38"/>
+      <c r="AF20" s="38"/>
+      <c r="AG20" s="38"/>
+      <c r="AH20" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B1:H2"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="P1:Z1"/>
-    <mergeCell ref="AA1:AE2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Z2"/>
+    <mergeCell ref="B1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S1:AC1"/>
+    <mergeCell ref="AD1:AH2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:AC2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
